--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H2">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I2">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J2">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.65740233333333</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N2">
-        <v>46.972207</v>
+        <v>41.791871</v>
       </c>
       <c r="O2">
-        <v>0.5111560914107862</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P2">
-        <v>0.5111560914107862</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q2">
-        <v>11.94333602151389</v>
+        <v>14.21680511219222</v>
       </c>
       <c r="R2">
-        <v>107.490024193625</v>
+        <v>127.95124600973</v>
       </c>
       <c r="S2">
-        <v>0.3181327398899478</v>
+        <v>0.1045353030316523</v>
       </c>
       <c r="T2">
-        <v>0.3181327398899478</v>
+        <v>0.1045353030316522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H3">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I3">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J3">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.333505</v>
       </c>
       <c r="O3">
-        <v>0.275681647182037</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P3">
-        <v>0.275681647182037</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q3">
-        <v>6.441395500486111</v>
+        <v>8.617979879238888</v>
       </c>
       <c r="R3">
-        <v>57.97255950437501</v>
+        <v>77.56181891314999</v>
       </c>
       <c r="S3">
-        <v>0.1715784262950577</v>
+        <v>0.06336748172937452</v>
       </c>
       <c r="T3">
-        <v>0.1715784262950577</v>
+        <v>0.06336748172937452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,61 +664,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H4">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I4">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J4">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.186037</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N4">
-        <v>0.558111</v>
+        <v>15.809674</v>
       </c>
       <c r="O4">
-        <v>0.006073417783698461</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P4">
-        <v>0.006073417783698461</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q4">
-        <v>0.1419074732916667</v>
+        <v>5.378152467624445</v>
       </c>
       <c r="R4">
-        <v>1.277167259625</v>
+        <v>48.40337220862001</v>
       </c>
       <c r="S4">
-        <v>0.003779966770407843</v>
+        <v>0.03954522788466766</v>
       </c>
       <c r="T4">
-        <v>0.003779966770407843</v>
+        <v>0.03954522788466766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7627916666666668</v>
+        <v>2.383042</v>
       </c>
       <c r="H5">
-        <v>2.288375</v>
+        <v>7.149126</v>
       </c>
       <c r="I5">
-        <v>0.6223788491141802</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J5">
-        <v>0.6223788491141802</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.343411333333333</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N5">
-        <v>19.030234</v>
+        <v>41.791871</v>
       </c>
       <c r="O5">
-        <v>0.2070888436234783</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P5">
-        <v>0.2070888436234783</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q5">
-        <v>4.838701303305556</v>
+        <v>33.19726128386067</v>
       </c>
       <c r="R5">
-        <v>43.54831172975</v>
+        <v>298.775351554746</v>
       </c>
       <c r="S5">
-        <v>0.1288877161587669</v>
+        <v>0.2440974424804644</v>
       </c>
       <c r="T5">
-        <v>0.1288877161587668</v>
+        <v>0.2440974424804643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.462815</v>
+        <v>2.383042</v>
       </c>
       <c r="H6">
-        <v>1.388445</v>
+        <v>7.149126</v>
       </c>
       <c r="I6">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J6">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.65740233333333</v>
+        <v>8.444501666666666</v>
       </c>
       <c r="N6">
-        <v>46.972207</v>
+        <v>25.333505</v>
       </c>
       <c r="O6">
-        <v>0.5111560914107862</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P6">
-        <v>0.5111560914107862</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q6">
-        <v>7.246480660901667</v>
+        <v>20.12360214073666</v>
       </c>
       <c r="R6">
-        <v>65.21832594811501</v>
+        <v>181.11241926663</v>
       </c>
       <c r="S6">
-        <v>0.1930233515208384</v>
+        <v>0.1479676222097368</v>
       </c>
       <c r="T6">
-        <v>0.1930233515208384</v>
+        <v>0.1479676222097368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.462815</v>
+        <v>2.383042</v>
       </c>
       <c r="H7">
-        <v>1.388445</v>
+        <v>7.149126</v>
       </c>
       <c r="I7">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J7">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,152 +868,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.444501666666666</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N7">
-        <v>25.333505</v>
+        <v>15.809674</v>
       </c>
       <c r="O7">
-        <v>0.275681647182037</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P7">
-        <v>0.275681647182037</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q7">
-        <v>3.908242038858333</v>
+        <v>12.55837238276933</v>
       </c>
       <c r="R7">
-        <v>35.174178349725</v>
+        <v>113.025351444924</v>
       </c>
       <c r="S7">
-        <v>0.1041032208869793</v>
+        <v>0.09234094807217157</v>
       </c>
       <c r="T7">
-        <v>0.1041032208869793</v>
+        <v>0.09234094807217155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.462815</v>
+        <v>1.515928333333333</v>
       </c>
       <c r="H8">
-        <v>1.388445</v>
+        <v>4.547785</v>
       </c>
       <c r="I8">
-        <v>0.3776211508858198</v>
+        <v>0.3081459745919329</v>
       </c>
       <c r="J8">
-        <v>0.3776211508858198</v>
+        <v>0.3081459745919329</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.186037</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N8">
-        <v>0.558111</v>
+        <v>41.791871</v>
       </c>
       <c r="O8">
-        <v>0.006073417783698461</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P8">
-        <v>0.006073417783698461</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q8">
-        <v>0.08610071415500001</v>
+        <v>21.11782711730389</v>
       </c>
       <c r="R8">
-        <v>0.7749064273950002</v>
+        <v>190.060444055735</v>
       </c>
       <c r="S8">
-        <v>0.002293451013290618</v>
+        <v>0.1552780979732374</v>
       </c>
       <c r="T8">
-        <v>0.002293451013290618</v>
+        <v>0.1552780979732373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.547785</v>
+      </c>
+      <c r="I9">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J9">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.444501666666666</v>
+      </c>
+      <c r="N9">
+        <v>25.333505</v>
+      </c>
+      <c r="O9">
+        <v>0.3054619850111623</v>
+      </c>
+      <c r="P9">
+        <v>0.3054619850111623</v>
+      </c>
+      <c r="Q9">
+        <v>12.80125933738055</v>
+      </c>
+      <c r="R9">
+        <v>115.211334036425</v>
+      </c>
+      <c r="S9">
+        <v>0.094126881072051</v>
+      </c>
+      <c r="T9">
+        <v>0.09412688107205101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.462815</v>
-      </c>
-      <c r="H9">
-        <v>1.388445</v>
-      </c>
-      <c r="I9">
-        <v>0.3776211508858198</v>
-      </c>
-      <c r="J9">
-        <v>0.3776211508858198</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.343411333333333</v>
-      </c>
-      <c r="N9">
-        <v>19.030234</v>
-      </c>
-      <c r="O9">
-        <v>0.2070888436234783</v>
-      </c>
-      <c r="P9">
-        <v>0.2070888436234783</v>
-      </c>
-      <c r="Q9">
-        <v>2.935825916236667</v>
-      </c>
-      <c r="R9">
-        <v>26.42243324613</v>
-      </c>
-      <c r="S9">
-        <v>0.07820112746471146</v>
-      </c>
-      <c r="T9">
-        <v>0.07820112746471143</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.547785</v>
+      </c>
+      <c r="I10">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J10">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.269891333333334</v>
+      </c>
+      <c r="N10">
+        <v>15.809674</v>
+      </c>
+      <c r="O10">
+        <v>0.1906271715034838</v>
+      </c>
+      <c r="P10">
+        <v>0.1906271715034838</v>
+      </c>
+      <c r="Q10">
+        <v>7.988777585787778</v>
+      </c>
+      <c r="R10">
+        <v>71.89899827209001</v>
+      </c>
+      <c r="S10">
+        <v>0.05874099554664454</v>
+      </c>
+      <c r="T10">
+        <v>0.05874099554664454</v>
       </c>
     </row>
   </sheetData>
